--- a/suspensionbridge_doc/UserParametersManual.xlsx
+++ b/suspensionbridge_doc/UserParametersManual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/oyvinpet_ntnu_no/Documents/Work/Python/Github/abaqustools/example_suspensionbridge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/oyvinpet_ntnu_no/Documents/Work/Python/Github/abaqustools/suspensionbridge_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1877" documentId="8_{64EB9ED9-02D6-4503-8D27-71CC82355205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39425257-197C-4F26-994A-25BD7E8ACF42}"/>
+  <xr:revisionPtr revIDLastSave="1889" documentId="8_{64EB9ED9-02D6-4503-8D27-71CC82355205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B516A76-7C9D-412D-9A7C-D321E96DCF6F}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="2445" windowWidth="38700" windowHeight="15315" xr2:uid="{B0070F92-6F78-4F7E-8A5C-8942A8E7EFB1}"/>
+    <workbookView xWindow="22500" yWindow="2895" windowWidth="21600" windowHeight="11040" xr2:uid="{B0070F92-6F78-4F7E-8A5C-8942A8E7EFB1}"/>
   </bookViews>
   <sheets>
     <sheet name="ParameterList" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="378">
   <si>
     <t>abaqus</t>
   </si>
@@ -1160,6 +1160,15 @@
   </si>
   <si>
     <t>Node and element numbers must be unique (don't change these)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>nsmass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-structural mass on the cable from (wrap, guide ropes) </t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1390,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1676,7 +1681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1684,12 +1689,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB4805-A9E8-43E2-B676-22A083A6DDB3}">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1095" activePane="bottomLeft"/>
+      <pane ySplit="1095" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1:H2"/>
-      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,32 +2450,30 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>203</v>
-      </c>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I43" s="18"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>12</v>
@@ -2491,86 +2494,89 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
+      <c r="C49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>230</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="3">
-        <v>17</v>
+      <c r="D52" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>37</v>
@@ -2584,13 +2590,13 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>37</v>
@@ -2599,18 +2605,18 @@
         <v>230</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>56</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>37</v>
@@ -2619,61 +2625,61 @@
         <v>230</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>40</v>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>230</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>363</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>230</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>317</v>
+        <v>63</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>38</v>
@@ -2682,35 +2688,32 @@
         <v>230</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>12</v>
@@ -2728,61 +2731,58 @@
         <v>218</v>
       </c>
       <c r="H59" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="H62" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>12</v>
@@ -2800,7 +2800,7 @@
         <v>218</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>322</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>12</v>
@@ -2817,7 +2817,7 @@
         <v>29</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>230</v>
@@ -2826,44 +2826,47 @@
         <v>218</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="G65" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="H65" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>76</v>
@@ -2872,7 +2875,7 @@
         <v>230</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>364</v>
@@ -2880,13 +2883,13 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>76</v>
@@ -2895,148 +2898,148 @@
         <v>230</v>
       </c>
       <c r="H67" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="3"/>
-    </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F69" s="1">
-        <v>3</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>58</v>
+      <c r="F70" s="1">
+        <v>3</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>369</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>12</v>
+        <v>304</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F71" s="1">
-        <v>1</v>
+      <c r="F71" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>348</v>
+        <v>306</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H72" s="4" t="s">
+      <c r="E73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="3"/>
-    </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>80</v>
+        <v>328</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>324</v>
@@ -3044,7 +3047,7 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>12</v>
@@ -3059,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>324</v>
@@ -3067,13 +3070,13 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>59</v>
@@ -3082,57 +3085,57 @@
         <v>1</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>203</v>
@@ -3140,22 +3143,22 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F81" s="1">
-        <v>2</v>
+      <c r="F81" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>203</v>
@@ -3163,88 +3166,88 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>308</v>
+      <c r="F82" s="1">
+        <v>2</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="B83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>6</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B85" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="C85" s="3"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>343</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>12</v>
@@ -3267,13 +3270,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>37</v>
@@ -3282,21 +3285,21 @@
         <v>1</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>37</v>
@@ -3305,62 +3308,65 @@
         <v>1</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I90" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>38</v>
@@ -3369,139 +3375,139 @@
         <v>1</v>
       </c>
       <c r="H92" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F94" s="1">
+      <c r="E95" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="1">
         <v>3</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H95" s="4" t="s">
+      <c r="E96" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="G96" s="3"/>
-    </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F97" s="1">
+      <c r="E98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="1">
         <v>2</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-    </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>7</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>12</v>
+        <v>174</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>12</v>
@@ -3516,18 +3522,18 @@
         <v>235</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>59</v>
@@ -3536,18 +3542,18 @@
         <v>235</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>59</v>
@@ -3556,163 +3562,157 @@
         <v>235</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>330</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>183</v>
+        <v>329</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="C108" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F107" s="1">
-        <v>1</v>
-      </c>
-      <c r="H107" s="4" t="s">
+      <c r="E108" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-    </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="C110" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F109" s="1">
+      <c r="E110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="1">
         <v>3</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H110" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I110" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H110" s="4" t="s">
+      <c r="E111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="G111" s="3"/>
+      <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="C113" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>105</v>
@@ -3724,45 +3724,45 @@
         <v>219</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>12</v>
@@ -3786,33 +3786,39 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="3" t="s">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>12</v>
@@ -3827,18 +3833,18 @@
         <v>234</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>59</v>
@@ -3847,79 +3853,76 @@
         <v>234</v>
       </c>
       <c r="H120" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H121" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="3" t="s">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C123" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F122" s="1">
-        <v>1</v>
-      </c>
-      <c r="H122" s="4" t="s">
+      <c r="E123" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H123" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="3" t="s">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="3">
+      <c r="C124" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="3">
         <v>50</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F123" s="1">
-        <v>1</v>
-      </c>
-      <c r="H123" s="4" t="s">
+      <c r="E124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F125" s="1">
-        <v>4</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>12</v>
@@ -3940,68 +3943,68 @@
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" s="1">
+        <v>4</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>8</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B129" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>341</v>
-      </c>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>12</v>
+        <v>117</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F130" s="1">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>12</v>
@@ -4023,32 +4026,35 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="B132" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F132" s="1">
+        <v>6</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>12</v>
@@ -4067,116 +4073,113 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="B135" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>9</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C138" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F137" s="1">
-        <v>1</v>
-      </c>
-      <c r="G137" s="5" t="s">
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="H138" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I137" s="4" t="s">
+      <c r="I138" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-    </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="C140" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F139" s="1">
-        <v>1</v>
-      </c>
-      <c r="I139" s="4" t="s">
+      <c r="E140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-    </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>10</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B142" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F142" s="1">
-        <v>1</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -4185,39 +4188,39 @@
         <v>227</v>
       </c>
       <c r="H143" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H144" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-    </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F145" s="1">
-        <v>1</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>12</v>
@@ -4235,48 +4238,45 @@
         <v>227</v>
       </c>
       <c r="H146" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H147" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-    </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F148" s="1">
-        <v>1</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>333</v>
-      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>59</v>
@@ -4295,35 +4295,38 @@
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="B150" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F151" s="1">
-        <v>1</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>12</v>
@@ -4346,13 +4349,13 @@
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>293</v>
+        <v>137</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>59</v>
@@ -4364,18 +4367,18 @@
         <v>219</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>59</v>
@@ -4383,25 +4386,22 @@
       <c r="F154" s="1">
         <v>1</v>
       </c>
-      <c r="G154" s="6" t="s">
-        <v>227</v>
+      <c r="G154" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>59</v>
@@ -4413,7 +4413,7 @@
         <v>227</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>334</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>12</v>
@@ -4446,38 +4446,38 @@
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F158" s="1">
-        <v>1</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>372</v>
-      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>12</v>
@@ -4503,13 +4503,13 @@
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>59</v>
@@ -4521,73 +4521,76 @@
         <v>219</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>314</v>
+        <v>210</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="C162" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F161" s="1">
-        <v>1</v>
-      </c>
-      <c r="G161" s="6" t="s">
+      <c r="E162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="H161" s="4" t="s">
+      <c r="H162" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I161" s="4" t="s">
+      <c r="I162" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-    </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F163" s="1">
-        <v>1</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>59</v>
@@ -4599,12 +4602,12 @@
         <v>227</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C165" s="10" t="s">
         <v>12</v>
@@ -4622,12 +4625,12 @@
         <v>227</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>12</v>
@@ -4645,18 +4648,18 @@
         <v>227</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>59</v>
@@ -4668,45 +4671,45 @@
         <v>227</v>
       </c>
       <c r="H167" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H168" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-    </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F169" s="1">
-        <v>1</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>221</v>
-      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>59</v>
@@ -4714,22 +4717,22 @@
       <c r="F170" s="1">
         <v>1</v>
       </c>
-      <c r="G170" s="5" t="s">
-        <v>219</v>
+      <c r="G170" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C171" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>59</v>
@@ -4737,25 +4740,22 @@
       <c r="F171" s="1">
         <v>1</v>
       </c>
-      <c r="G171" s="6" t="s">
-        <v>227</v>
+      <c r="G171" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>59</v>
@@ -4763,52 +4763,55 @@
       <c r="F172" s="1">
         <v>1</v>
       </c>
-      <c r="G172" s="5" t="s">
-        <v>219</v>
+      <c r="G172" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I172" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
+      <c r="B173" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F174" s="1">
-        <v>1</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H174" s="13" t="s">
-        <v>286</v>
-      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>59</v>
@@ -4816,68 +4819,68 @@
       <c r="F175" s="1">
         <v>1</v>
       </c>
-      <c r="G175" s="5" t="s">
-        <v>219</v>
+      <c r="G175" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H176" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C176" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="C177" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F176" s="1">
-        <v>1</v>
-      </c>
-      <c r="G176" s="6" t="s">
+      <c r="E177" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="H176" s="13" t="s">
+      <c r="H177" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="G177" s="13"/>
-      <c r="H177" s="13"/>
-    </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F178" s="1">
-        <v>1</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>12</v>
@@ -4899,38 +4902,35 @@
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
+      <c r="B180" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F181" s="1">
-        <v>1</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C182" s="10" t="s">
         <v>12</v>
@@ -4955,35 +4955,38 @@
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
+      <c r="B183" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F184" s="1">
-        <v>1</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C185" s="10" t="s">
         <v>12</v>
@@ -5005,35 +5008,35 @@
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
+      <c r="B186" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F187" s="1">
-        <v>1</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C188" s="10" t="s">
         <v>12</v>
@@ -5055,35 +5058,35 @@
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="B189" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F189" s="1">
+        <v>1</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F190" s="1">
-        <v>1</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C191" s="10" t="s">
         <v>12</v>
@@ -5105,35 +5108,35 @@
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+      <c r="B192" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F193" s="1">
-        <v>1</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H193" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>12</v>
@@ -5155,41 +5158,41 @@
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
+      <c r="B195" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F196" s="1">
-        <v>1</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>226</v>
-      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C197" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>59</v>
@@ -5205,8 +5208,27 @@
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+      <c r="B198" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F198" s="1">
+        <v>1</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
@@ -5227,12 +5249,16 @@
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D184:D185 D187:D188 D190:D191 D193:D194 D196:D197 D137 D142:D143 D145:D146 D163:D167 D169 D174:D175 D171 D160:D161 D154:D156 D148:D149 D71" numberStoredAsText="1"/>
+    <ignoredError sqref="D185:D186 D188:D189 D191:D192 D194:D195 D197:D198 D138 D143:D144 D146:D147 D164:D168 D170 D175:D176 D172 D161:D162 D155:D157 D149:D150 D72" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
